--- a/HXI.xlsx
+++ b/HXI.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/t6shi_uwaterloo_ca/Documents/HXI/manual/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\HXI_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="8_{184B0297-81B2-4E13-BEB6-7B3904F77B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C692806-569A-427D-AB3C-F48A774EB498}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D3F1DA-51A3-4DF5-809B-BA388D6A723A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{31E7AB82-3732-44E0-9296-D061DE71BF8A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2 (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Intro" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="4" r:id="rId2"/>
+    <sheet name="Items by factor" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="66">
   <si>
     <t>Autotelics</t>
   </si>
@@ -251,12 +251,107 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The complete list of HXI items grouped by factors
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This is not for administration -- Respondents are not supposed to know the factor structure or see the item number when responding.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +416,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -372,7 +483,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -381,6 +492,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,7 +838,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -730,7 +847,7 @@
     <col min="2" max="2" width="81.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -766,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8293D58C-2657-4F85-B99D-6FC23DD75C64}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1436,161 +1553,230 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C14F185-BBB8-4882-A05F-BCBC34171508}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="82" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
